--- a/JobTrendsSprint2BurnupChart.xlsx
+++ b/JobTrendsSprint2BurnupChart.xlsx
@@ -57,7 +57,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -66,9 +66,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -91,7 +88,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>Story points, Total Points, Completed and Estimated work</a:t>
+              <a:t>Burnup Chart 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -106,7 +103,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -126,7 +123,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -136,7 +133,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -156,7 +153,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -166,7 +163,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -186,46 +183,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$16</c:f>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng" w="19050">
-              <a:solidFill>
-                <a:srgbClr val="109618"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
               <c:f>Sheet1!$E$2:$E$16</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1785345911"/>
-        <c:axId val="534663514"/>
+        <c:axId val="938080749"/>
+        <c:axId val="1523020016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1785345911"/>
+        <c:axId val="938080749"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -257,10 +224,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534663514"/>
+        <c:crossAx val="1523020016"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="534663514"/>
+        <c:axId val="1523020016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -275,6 +242,23 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Story Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -291,7 +275,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1785345911"/>
+        <c:crossAx val="938080749"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -309,10 +293,10 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:ext cx="9915525" cy="3533775"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
@@ -390,7 +374,9 @@
       <c r="D3" s="1">
         <v>5.0</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
@@ -405,7 +391,9 @@
       <c r="D4" s="1">
         <v>5.0</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="1">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -420,7 +408,9 @@
       <c r="D5" s="1">
         <v>12.0</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="1">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
@@ -435,7 +425,9 @@
       <c r="D6" s="1">
         <v>30.0</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="1">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
@@ -450,7 +442,9 @@
       <c r="D7" s="1">
         <v>40.0</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="1">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
@@ -465,7 +459,9 @@
       <c r="D8" s="1">
         <v>40.0</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="1">
+        <v>26.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -480,7 +476,9 @@
       <c r="D9" s="1">
         <v>40.0</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="1">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -495,7 +493,9 @@
       <c r="D10" s="1">
         <v>40.0</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="1">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
@@ -507,8 +507,12 @@
       <c r="C11" s="1">
         <v>59.0</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>38.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
@@ -520,8 +524,12 @@
       <c r="C12" s="1">
         <v>59.0</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
@@ -533,8 +541,12 @@
       <c r="C13" s="1">
         <v>59.0</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>46.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
@@ -546,8 +558,12 @@
       <c r="C14" s="1">
         <v>59.0</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
@@ -559,8 +575,12 @@
       <c r="C15" s="1">
         <v>59.0</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>54.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
@@ -572,9 +592,11 @@
       <c r="C16" s="1">
         <v>59.0</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="1">
+        <v>40.0</v>
+      </c>
       <c r="E16" s="1">
-        <v>60.0</v>
+        <v>59.0</v>
       </c>
     </row>
   </sheetData>

--- a/JobTrendsSprint2BurnupChart.xlsx
+++ b/JobTrendsSprint2BurnupChart.xlsx
@@ -188,11 +188,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="938080749"/>
-        <c:axId val="1523020016"/>
+        <c:axId val="56234892"/>
+        <c:axId val="1103805637"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="938080749"/>
+        <c:axId val="56234892"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -224,10 +224,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1523020016"/>
+        <c:crossAx val="1103805637"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1523020016"/>
+        <c:axId val="1103805637"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -275,7 +275,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="938080749"/>
+        <c:crossAx val="56234892"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -349,10 +349,10 @@
         <v>43403.0</v>
       </c>
       <c r="B2" s="1">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="C2" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D2" s="1">
         <v>5.0</v>
@@ -366,10 +366,10 @@
         <v>43404.0</v>
       </c>
       <c r="B3" s="1">
-        <v>65.0</v>
+        <v>55.0</v>
       </c>
       <c r="C3" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D3" s="1">
         <v>5.0</v>
@@ -383,10 +383,10 @@
         <v>43405.0</v>
       </c>
       <c r="B4" s="1">
-        <v>60.0</v>
+        <v>50.0</v>
       </c>
       <c r="C4" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D4" s="1">
         <v>5.0</v>
@@ -400,10 +400,10 @@
         <v>43406.0</v>
       </c>
       <c r="B5" s="1">
-        <v>55.0</v>
+        <v>45.0</v>
       </c>
       <c r="C5" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D5" s="1">
         <v>12.0</v>
@@ -417,10 +417,10 @@
         <v>43407.0</v>
       </c>
       <c r="B6" s="1">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="C6" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D6" s="1">
         <v>30.0</v>
@@ -434,10 +434,10 @@
         <v>43408.0</v>
       </c>
       <c r="B7" s="1">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="C7" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D7" s="1">
         <v>40.0</v>
@@ -451,10 +451,10 @@
         <v>43409.0</v>
       </c>
       <c r="B8" s="1">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="C8" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D8" s="1">
         <v>40.0</v>
@@ -468,10 +468,10 @@
         <v>43410.0</v>
       </c>
       <c r="B9" s="1">
-        <v>35.0</v>
+        <v>25.0</v>
       </c>
       <c r="C9" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D9" s="1">
         <v>40.0</v>
@@ -485,10 +485,10 @@
         <v>43411.0</v>
       </c>
       <c r="B10" s="1">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="C10" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D10" s="1">
         <v>40.0</v>
@@ -502,13 +502,13 @@
         <v>43412.0</v>
       </c>
       <c r="B11" s="1">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
       <c r="C11" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D11" s="1">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="E11" s="1">
         <v>38.0</v>
@@ -519,13 +519,13 @@
         <v>43413.0</v>
       </c>
       <c r="B12" s="1">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="C12" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D12" s="1">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="E12" s="1">
         <v>42.0</v>
@@ -536,13 +536,13 @@
         <v>43414.0</v>
       </c>
       <c r="B13" s="1">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="C13" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D13" s="1">
-        <v>40.0</v>
+        <v>47.0</v>
       </c>
       <c r="E13" s="1">
         <v>46.0</v>
@@ -553,51 +553,31 @@
         <v>43415.0</v>
       </c>
       <c r="B14" s="1">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" s="1">
-        <v>59.0</v>
+        <v>50.0</v>
       </c>
       <c r="D14" s="1">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="E14" s="1">
         <v>50.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2">
-        <v>43416.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>54.0</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="2">
-        <v>43417.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>59.0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>59.0</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
